--- a/examples/excel_examples/federation-membership.xlsx
+++ b/examples/excel_examples/federation-membership.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Full1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Full1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,18 +22,16 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>Autoría desconocida</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Federation the credential subject is affiliated with</t>
         </r>
@@ -43,11 +41,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Legal name of the affiliated organisation</t>
         </r>
@@ -57,11 +53,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Short name of the organisation of the affiliated organisation</t>
         </r>
@@ -71,11 +65,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Registration identifier of the affiliated organisation</t>
         </r>
@@ -85,11 +77,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Registry where the affiliated organisation is registered: 'Generalitat de Catalunya', 'Ministerio del interior de España'</t>
         </r>
@@ -99,11 +89,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Postal address of the member organisation: legal address</t>
         </r>
@@ -113,11 +101,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Postal code of the member organisation</t>
         </r>
@@ -127,11 +113,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">City of the member organisation</t>
         </r>
@@ -141,11 +125,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tax reference as VAT registration of the member organisation</t>
         </r>
@@ -155,11 +137,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Type of membership: full / observer</t>
         </r>
@@ -169,11 +149,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Type of membership: active / suspended, etc.</t>
         </r>
@@ -183,11 +161,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Membership identifier: an internal unique number or code</t>
         </r>
@@ -197,11 +173,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Type of evidence used for attestation</t>
         </r>
@@ -212,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">federation</t>
   </si>
@@ -272,6 +246,9 @@
   </si>
   <si>
     <t xml:space="preserve">EDUALTER – EDUCACIÓ ALTERNATIVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plaça Eusebi Güell 6  ,08034 Barcelona</t>
   </si>
   <si>
     <t xml:space="preserve">Barcelona</t>
@@ -294,7 +271,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -330,10 +307,17 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -387,32 +371,36 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -428,6 +416,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -436,113 +530,116 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="19.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="4.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="12.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="15.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>8001</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="M2" s="6" t="n">
         <v>44928</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="5" t="n">
+      <c r="N2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="6" t="n">
         <v>45292</v>
       </c>
     </row>

--- a/examples/excel_examples/federation-membership.xlsx
+++ b/examples/excel_examples/federation-membership.xlsx
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">federation</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t xml:space="preserve">Barcelona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A555557</t>
   </si>
   <si>
     <t xml:space="preserve">Full</t>
@@ -530,7 +533,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -627,17 +630,20 @@
       <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="6" t="n">
         <v>44928</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R2" s="6" t="n">
         <v>45292</v>
